--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Pawfectcare-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0884FEEC-E83B-4C5F-AB7A-13A1ED43D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D36AA3-2258-490D-80AF-07CA88756332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
+    <workbookView xWindow="5775" yWindow="1410" windowWidth="19605" windowHeight="14070" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
   </bookViews>
   <sheets>
     <sheet name="28.03.2024" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>Page name</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Give "test" functions more specific names</t>
+  </si>
+  <si>
+    <t>Code Commentary</t>
+  </si>
+  <si>
+    <t>Activity Name</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -369,7 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81D2AD-7603-463C-AC93-7786848214C1}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,25 +1230,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Pawfectcare-Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Pawfectcare-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D36AA3-2258-490D-80AF-07CA88756332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13E41F-75C7-4C6B-AB3B-4813A96BA7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="1410" windowWidth="19605" windowHeight="14070" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
   </bookViews>
   <sheets>
     <sheet name="28.03.2024" sheetId="1" r:id="rId1"/>
+    <sheet name="29.03.2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="70">
   <si>
     <t>Page name</t>
   </si>
@@ -240,13 +241,19 @@
   </si>
   <si>
     <t>Activity Name</t>
+  </si>
+  <si>
+    <t>Change field names to correct names</t>
+  </si>
+  <si>
+    <t>Collect Responses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +284,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -375,6 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81D2AD-7603-463C-AC93-7786848214C1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -889,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -900,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -911,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -922,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
@@ -933,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -944,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
@@ -955,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
@@ -966,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>51</v>
       </c>
@@ -977,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>53</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>55</v>
       </c>
@@ -1032,18 +1053,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>57</v>
       </c>
@@ -1321,6 +1345,633 @@
         <v>31</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F3E70F-2F3C-4E86-9854-97E3A67E7544}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>25</v>
       </c>
     </row>
